--- a/attractions.xlsx
+++ b/attractions.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djtrost/Documents/hhn_database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djtro\Documents\hhn_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F00FA07-07C3-8C4C-95E6-22538B194133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251B3EC-AE7E-4221-9D59-923D611CE86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{69624439-0A77-0B42-839C-44D1B5A36578}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69624439-0A77-0B42-839C-44D1B5A36578}"/>
   </bookViews>
   <sheets>
-    <sheet name="Japan" sheetId="1" r:id="rId1"/>
+    <sheet name="Singapore" sheetId="2" r:id="rId1"/>
+    <sheet name="Japan" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -59,61 +61,24 @@
     <t>The Mummy Museum II</t>
   </si>
   <si>
-    <t>From Friday the 13th will you escape Jason's machete?</t>
-  </si>
-  <si>
-    <t>Travel deep into the museum but escape the curse.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escape Raccoon City. Based on the Resident Evil series, including Resident Evil characters and zombies. </t>
-  </si>
-  <si>
     <t>Biohazard</t>
   </si>
   <si>
-    <t>Featuring carnivals from across the world, guests can catch colorful bead necklaces. 
-The parade includes more than 100 entertainers wearing glamorous costumes and nine magnificent floats with characters in Halloween costumes.</t>
-  </si>
-  <si>
     <t>Friday the 13th: Jason's Blood Diner 2</t>
   </si>
   <si>
-    <t>Jason is back! Where did he come from? Escape Jason from Friday the 13th as he attacks you from every angle.</t>
-  </si>
-  <si>
-    <t>It has been a year since it was abandoned by a curse. In The Mummy Museum you'll have a gritty, creepy, 
-and terrifying experience. Can you get the treasures of Imhotep while avoiding the attacks of the mummy?</t>
-  </si>
-  <si>
     <t>The Mummy Museum III</t>
   </si>
   <si>
     <t>Street Zombies 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Featuring a wide variety of different zombies. If you walk down the street you will be caught without mercy! </t>
-  </si>
-  <si>
-    <t>Parade de Carnival 2012</t>
-  </si>
-  <si>
-    <t>Parade de Carnival 2013</t>
-  </si>
-  <si>
     <t>Chucky's Horror Factory</t>
   </si>
   <si>
     <t>Biohazard: The Real</t>
   </si>
   <si>
-    <t xml:space="preserve">Walk-through attraction based on the Resident Evil video game series where you are handed a gun and 
-must fight your way through Raccoon City. </t>
-  </si>
-  <si>
-    <t>Hidden behind a toy store is a brutal toy factory. Pint-sized horror icon Chucky lurks around every corner. 
-Can you escape safely?</t>
-  </si>
-  <si>
     <t>Friday the 13th</t>
   </si>
   <si>
@@ -123,77 +88,292 @@
     <t>Street Zombies 2014</t>
   </si>
   <si>
-    <t>Parade de Carnival 2014</t>
-  </si>
-  <si>
     <t>A Nightmare on Elm Street: The Night Killer</t>
   </si>
   <si>
-    <t>Guests will be filled with fear and dread as the eerie, brutal Freddy Krueger attacks unpredictably from every direction.</t>
-  </si>
-  <si>
     <t>Alien vs. Predator</t>
   </si>
   <si>
-    <t>In a lab turned Alien den, guests are drawn into a battle between the cruel, inhuman Aliens and the ferocious, elusive 
-Predators. During this fierce battle, the targets are transformed into hunters that are thoroughly focused on taking the guests’ lives!</t>
-  </si>
-  <si>
-    <t>Based on the “Biohazard” video game franchise, guests blast their way through hordes of zombies, Lickers and other 
-mutated monsters in an attempt to escape from Raccoon City.</t>
-  </si>
-  <si>
     <t>Biohazard: The Real 3</t>
   </si>
   <si>
     <t>Chucky's Horror Factory 2</t>
   </si>
   <si>
-    <t>At Chucky’s Horror Factory 2, guests are once again made to experience the deepest fear in a derelict toy factory. 
-They feel an extreme sense of urgency that is so real they believe they might be the next to be killed by the brutal Chucky.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trauma: The Experimental Hospital Ward of Horror </t>
   </si>
   <si>
-    <t>A psychologist has conducted experiments to see how much fear humans can withstand. Now, his facility has been revived. 
-Here, guests will witness many gut-wrenching experiments and are forced to follow erratic instructions from the guards.</t>
-  </si>
-  <si>
     <t>Resident Evil: The Escape</t>
   </si>
   <si>
-    <t xml:space="preserve">A live-action escape room based on the Resident Evil franchise. The t-Virus has contaminated the RCBN studio. 
-A UBCS squad has arrived and helped four survivors, but they have only an hour to find antiretroviral drugs and escape. </t>
-  </si>
-  <si>
     <t>Street Zombies 2015</t>
   </si>
   <si>
-    <t>Haunted School</t>
-  </si>
-  <si>
-    <t>This bizarre phenomenon has come for you and is filled with an uneasy blend of after-school nostalgia and dread. 
-Familiar stories from Haunted School (1995) will play out before your very eyes. Do not tell anyone about what you see here.</t>
-  </si>
-  <si>
-    <t>Parade de Carnival 2015</t>
-  </si>
-  <si>
     <t>Sadako 2015</t>
   </si>
   <si>
-    <t>Sadako, the vengeful spirit seen in the “Ringu/The Ring” film series will “haunt” Terminator 3D and other attractions.</t>
-  </si>
-  <si>
     <t>Sadako 2013</t>
   </si>
   <si>
     <t>Sadako 2014</t>
   </si>
   <si>
-    <t>Biohazard: The Real 2 will throw guests into an ultra-high difficulty video-game experience, 
-where the survival rate is 0%.</t>
+    <t>A Nightmare on Elm Street 2</t>
+  </si>
+  <si>
+    <t>Chucky Horror Factory 3</t>
+  </si>
+  <si>
+    <t>Tatari</t>
+  </si>
+  <si>
+    <t>Trauma 2</t>
+  </si>
+  <si>
+    <t>J-Horror</t>
+  </si>
+  <si>
+    <t>Haunted School 2016</t>
+  </si>
+  <si>
+    <t>Sadako 2016</t>
+  </si>
+  <si>
+    <t>Haunted School 2015</t>
+  </si>
+  <si>
+    <t>Deadman's Forest: Escape From the Forest of Death</t>
+  </si>
+  <si>
+    <t>A Nightmare on Elm Street 3</t>
+  </si>
+  <si>
+    <t>The Exorcist: The Devil's Manor 2016</t>
+  </si>
+  <si>
+    <t>The Exorcist: The Devil's Manor 2017</t>
+  </si>
+  <si>
+    <t>Trauma 3</t>
+  </si>
+  <si>
+    <t>Haunted School 2017</t>
+  </si>
+  <si>
+    <t>Sadako 2017</t>
+  </si>
+  <si>
+    <t>Cult of Chucky: Chucky's Hospital Ward of Madness 2017</t>
+  </si>
+  <si>
+    <t>Cult of Chucky: Chucky's Hospital Ward of Madness 2018</t>
+  </si>
+  <si>
+    <t>Insidious: The Last Key</t>
+  </si>
+  <si>
+    <t>The Survival: Deadman's Forest 2</t>
+  </si>
+  <si>
+    <t>Hotel Albert</t>
+  </si>
+  <si>
+    <t>Silence in the Ghost Ship</t>
+  </si>
+  <si>
+    <t>Blood Legend 2018</t>
+  </si>
+  <si>
+    <t>Sadako 2018</t>
+  </si>
+  <si>
+    <t>Biohazard: The Extreme</t>
+  </si>
+  <si>
+    <t>Area 51</t>
+  </si>
+  <si>
+    <t>Cult of Chucky: Maze of Madness</t>
+  </si>
+  <si>
+    <t>Hotel Albert 2: Requiem</t>
+  </si>
+  <si>
+    <t>Garden of the Cursed Rose</t>
+  </si>
+  <si>
+    <t>Zombie de Dance 2018</t>
+  </si>
+  <si>
+    <t>Zombie de Dance 2019</t>
+  </si>
+  <si>
+    <t>Blood Legend 2019</t>
+  </si>
+  <si>
+    <t>Sadako 2019</t>
+  </si>
+  <si>
+    <t>GeGeGe no Kitaro The Real: Haunted Village</t>
+  </si>
+  <si>
+    <t>Zombie de Dance 2021</t>
+  </si>
+  <si>
+    <t>Cyber Monster Boulevard</t>
+  </si>
+  <si>
+    <t>Creepy Circus Road</t>
+  </si>
+  <si>
+    <t>DJ X Death Square</t>
+  </si>
+  <si>
+    <t>DJ X Psycho Street</t>
+  </si>
+  <si>
+    <t>Killer Cutie Avenue</t>
+  </si>
+  <si>
+    <t>Cult of Chucky: Chucky's Hospital Ward of Madness 2022</t>
+  </si>
+  <si>
+    <t>Circus Freaks</t>
+  </si>
+  <si>
+    <t>Gothic Killer Cuties</t>
+  </si>
+  <si>
+    <t>Chainsaw Chain-Gang</t>
+  </si>
+  <si>
+    <t>Tortured Test-Subjects</t>
+  </si>
+  <si>
+    <t>Atrocious Ancients</t>
+  </si>
+  <si>
+    <t>Murderous Monsters</t>
+  </si>
+  <si>
+    <t>Hamikuma Psycho Circus</t>
+  </si>
+  <si>
+    <t>Zombie de Dance 2022</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes: The Cursed Rose Sword 2021</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes: The Cursed Rose Sword 2022</t>
+  </si>
+  <si>
+    <t>Chucky's Carnival of Chaos</t>
+  </si>
+  <si>
+    <t>Universal Monsters: Legends of Fear 2023</t>
+  </si>
+  <si>
+    <t>Universal Monsters: Legends of Fear 2022</t>
+  </si>
+  <si>
+    <t>Biohazard: The Extreme + 2022</t>
+  </si>
+  <si>
+    <t>Biohazard: The Extreme + 2023</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>update description</t>
+  </si>
+  <si>
+    <t>Street Zombies 2023</t>
+  </si>
+  <si>
+    <t>Zombie de Dance 2023</t>
+  </si>
+  <si>
+    <t>Street Zombies 2022</t>
+  </si>
+  <si>
+    <t>Street Zombies 2021</t>
+  </si>
+  <si>
+    <t>Street Zombies 2019</t>
+  </si>
+  <si>
+    <t>Street Zombies 2018</t>
+  </si>
+  <si>
+    <t>Street Zombies 2017</t>
+  </si>
+  <si>
+    <t>Street Zombies 2016</t>
+  </si>
+  <si>
+    <t>Pestilence</t>
+  </si>
+  <si>
+    <t>Vengeance of the Matriarch</t>
+  </si>
+  <si>
+    <t>Carn-evil</t>
+  </si>
+  <si>
+    <t>Post-Apocalyptic Rage</t>
+  </si>
+  <si>
+    <t>The Void</t>
+  </si>
+  <si>
+    <t>The Edge of Darkness</t>
+  </si>
+  <si>
+    <t>44 Sins</t>
+  </si>
+  <si>
+    <t>Dungeon of Damnation</t>
+  </si>
+  <si>
+    <t>Death Alley</t>
+  </si>
+  <si>
+    <t>The Insanitarium</t>
+  </si>
+  <si>
+    <t>Total Lockdown</t>
+  </si>
+  <si>
+    <t>House of Dolls</t>
+  </si>
+  <si>
+    <t>Bizarre Bazaar</t>
+  </si>
+  <si>
+    <t>Monster Rock</t>
+  </si>
+  <si>
+    <t>Adrift</t>
+  </si>
+  <si>
+    <t>House 13: Posession</t>
+  </si>
+  <si>
+    <t>Songs of Death</t>
+  </si>
+  <si>
+    <t>Attack of the Vampires</t>
+  </si>
+  <si>
+    <t>Convetion of Curses</t>
+  </si>
+  <si>
+    <t>Forbidden Forest</t>
+  </si>
+  <si>
+    <t>Monster Rock: Halloween Edition</t>
   </si>
 </sst>
 </file>
@@ -243,16 +423,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,25 +744,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055D8D67-AAFD-414D-B6FE-F1079F3D4D66}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36105FD4-F29B-432F-BADF-84D58C12FB0F}">
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="99.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -597,13 +776,469 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>61</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>105</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>66</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>87</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055D8D67-AAFD-414D-B6FE-F1079F3D4D66}">
+  <dimension ref="A1:K86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="105" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -615,12 +1250,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -632,12 +1267,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -649,29 +1281,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -682,234 +1314,238 @@
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>107</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>113</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>113</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>113</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>29</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>80</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>80</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>107</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>113</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
       </c>
       <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>80</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>4</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -920,125 +1556,1133 @@
       <c r="I20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="I23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>113</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>61</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>113</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>113</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>55</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>96</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>107</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>61</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>113</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>113</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>55</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>96</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="G24">
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>107</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>61</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>113</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>55</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>113</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46">
         <v>80</v>
       </c>
-      <c r="I24">
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>80</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>96</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>107</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>29</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25">
+      <c r="I51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>61</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>55</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>80</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>80</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57">
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="G57">
         <v>96</v>
       </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>107</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>55</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>80</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>113</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>113</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
+      <c r="I66">
+        <v>9</v>
+      </c>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>105</v>
+      </c>
+      <c r="I67">
+        <v>9</v>
+      </c>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>56</v>
+      </c>
+      <c r="I68">
+        <v>10</v>
+      </c>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>55</v>
+      </c>
+      <c r="I69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>56</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>28</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>35</v>
+      </c>
+      <c r="I72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>113</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>28</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>78</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>113</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>113</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>80</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>80</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>105</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>113</v>
+      </c>
+      <c r="I81">
         <v>11</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="G26">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
         <v>80</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>107</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>56</v>
+      </c>
+      <c r="I83">
+        <v>11</v>
+      </c>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>80</v>
+      </c>
+      <c r="I84">
+        <v>11</v>
+      </c>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>80</v>
+      </c>
+      <c r="I85">
+        <v>11</v>
+      </c>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
